--- a/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
+++ b/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\050 GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C1B7B-B067-47D1-9B5E-BD89ACC43D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EB0E8-FF0C-4455-BA60-C6EFF48B3AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="0" xr2:uid="{24AD6532-C17C-40B9-8631-ABD6C0E9B2AC}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -918,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -937,13 +937,55 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -951,26 +993,17 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="3"/>
@@ -995,7 +1028,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1032,29 +1064,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1063,41 +1095,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="8" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,34 +1267,32 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1322,6 +1320,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1347,29 +1348,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1416,13 +1395,34 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1485,6 +1485,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D8B3-475E-AAFB-D081E0EB7A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1502,6 +1507,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D8B3-475E-AAFB-D081E0EB7A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1519,6 +1529,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D8B3-475E-AAFB-D081E0EB7A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1536,6 +1551,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D8B3-475E-AAFB-D081E0EB7A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1553,6 +1573,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D8B3-475E-AAFB-D081E0EB7A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1570,6 +1595,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D8B3-475E-AAFB-D081E0EB7A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1587,6 +1617,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D8B3-475E-AAFB-D081E0EB7A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1604,6 +1639,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D8B3-475E-AAFB-D081E0EB7A4E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1699,28 +1739,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2534,7 +2574,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}" name="Tabela2" displayName="Tabela2" ref="D32:F40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}" name="Tabela2" displayName="Tabela2" ref="D32:F40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="D32:F40" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D33:F40">
     <sortCondition ref="D32:D40"/>
@@ -2560,9 +2600,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CB3AD64A-1758-4470-9CF9-BB20350543BC}" name="TIPO_FII" totalsRowLabel="TOTAL" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{02D0F872-09E7-4A9D-8F0C-5249404FA4F3}" name="CONSERVADOR" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{016DDC0E-92B4-411C-B2C5-E8729D702C26}" name="MODERADO" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{FAA6246E-A72B-4089-BE27-3EFE779895C6}" name="AGRESSIVO" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{02D0F872-09E7-4A9D-8F0C-5249404FA4F3}" name="CONSERVADOR" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{016DDC0E-92B4-411C-B2C5-E8729D702C26}" name="MODERADO" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FAA6246E-A72B-4089-BE27-3EFE779895C6}" name="AGRESSIVO" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2885,7 +2925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F159A4D-3545-4345-84B8-3DC71FEB91FC}">
-  <dimension ref="B1:Q44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -2899,462 +2939,442 @@
     <col min="5" max="5" width="17.75" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8" hidden="1"/>
-    <col min="9" max="17" width="0" style="8" hidden="1"/>
+    <col min="8" max="8" width="9" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="17" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:16" s="45" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="91" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:15" s="12" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:16" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="94" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:15" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-    </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="4">
-        <v>5000</v>
-      </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="5">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="89"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="86">
+      <c r="C11" s="20"/>
+      <c r="D11" s="95">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="25">
+        <f>PERCENTUAL_INVESTIR*SALARIO</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="2:15" s="35" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="41">
+        <f>APORTE</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="44">
+        <v>1.0789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49">
+        <f>FV(TAXA,PERIODO*12,-APORTADO)</f>
+        <v>125665.37099773147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54">
+        <f>PATRIMONIO*TAXA_MENSAL_APROX</f>
+        <v>1256.6537099773147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="58">
+        <v>2</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61">
+        <f t="shared" ref="E24:E29" si="0">FV(TAXA,B24*12,-APORTADO)</f>
+        <v>40841.440946467825</v>
+      </c>
+      <c r="F24" s="62">
+        <f t="shared" ref="F24:F29" si="1">TAXA_MENSAL_APROX*E24</f>
+        <v>408.41440946467827</v>
+      </c>
+      <c r="H24" s="63"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="64">
+        <v>5</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67">
+        <f t="shared" si="0"/>
+        <v>125665.37099773147</v>
+      </c>
+      <c r="F25" s="68">
+        <f t="shared" si="1"/>
+        <v>1256.6537099773147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="64">
+        <v>10</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67">
+        <f t="shared" si="0"/>
+        <v>364926.3187952583</v>
+      </c>
+      <c r="F26" s="68">
+        <f t="shared" si="1"/>
+        <v>3649.2631879525829</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="64">
+        <v>20</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67">
+        <f t="shared" si="0"/>
+        <v>1687797.600145621</v>
+      </c>
+      <c r="F27" s="68">
+        <f t="shared" si="1"/>
+        <v>16877.976001456209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="64">
+        <v>30</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67">
+        <f t="shared" si="0"/>
+        <v>6483254.4825070715</v>
+      </c>
+      <c r="F28" s="68">
+        <f t="shared" si="1"/>
+        <v>64832.54482507072</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="69">
+        <v>35</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72">
+        <f t="shared" si="0"/>
+        <v>12469476.557654778</v>
+      </c>
+      <c r="F29" s="73">
+        <f t="shared" si="1"/>
+        <v>124694.76557654778</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:8" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+    </row>
+    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="84" cm="1">
+        <f t="array" ref="E33">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="85">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="84" cm="1">
+        <f t="array" ref="E34">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="85">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="84" cm="1">
+        <f t="array" ref="E35">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="85">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="84" cm="1">
+        <f t="array" ref="E36">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="85">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="84" cm="1">
+        <f t="array" ref="E37">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="85">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="84" cm="1">
+        <f t="array" ref="E38">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="85">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="84" cm="1">
+        <f t="array" ref="E39">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0.3</v>
       </c>
-      <c r="E11" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="88">
-        <f>PERCENTUAL_INVESTIR*SALARIO</f>
-        <v>1500</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7">
-        <v>500</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="2:16" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24">
-        <f>APORTE</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="31">
-        <v>1.0789999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36">
-        <f>FV(TAXA,PERIODO*12,-APORTADO)</f>
-        <v>41888.456999243819</v>
-      </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41">
-        <f>PATRIMONIO*TAXA_MENSAL_APROX</f>
-        <v>376.99611299319434</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:8" s="45" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46">
-        <v>2</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49">
-        <f>FV(TAXA,B24*12,-APORTADO)</f>
-        <v>13613.813648822608</v>
-      </c>
-      <c r="F24" s="50">
-        <f>TAXA_MENSAL_APROX*E24</f>
-        <v>122.52432283940347</v>
-      </c>
-      <c r="H24" s="51"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="52">
-        <v>5</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55">
-        <f>FV(TAXA,B25*12,-APORTADO)</f>
-        <v>41888.456999243819</v>
-      </c>
-      <c r="F25" s="56">
-        <f>TAXA_MENSAL_APROX*E25</f>
-        <v>376.99611299319434</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="52">
-        <v>10</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55">
-        <f>FV(TAXA,B26*12,-APORTADO)</f>
-        <v>121642.1062650861</v>
-      </c>
-      <c r="F26" s="56">
-        <f>TAXA_MENSAL_APROX*E26</f>
-        <v>1094.7789563857748</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="52">
-        <v>20</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55">
-        <f>FV(TAXA,B27*12,-APORTADO)</f>
-        <v>562599.20004854025</v>
-      </c>
-      <c r="F27" s="56">
-        <f>TAXA_MENSAL_APROX*E27</f>
-        <v>5063.3928004368618</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="52">
-        <v>30</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55">
-        <f>FV(TAXA,B28*12,-APORTADO)</f>
-        <v>2161084.8275023573</v>
-      </c>
-      <c r="F28" s="56">
-        <f>TAXA_MENSAL_APROX*E28</f>
-        <v>19449.763447521214</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57">
-        <v>35</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60">
-        <f>FV(TAXA,B29*12,-APORTADO)</f>
-        <v>4156492.1858849255</v>
-      </c>
-      <c r="F29" s="61">
-        <f>TAXA_MENSAL_APROX*E29</f>
-        <v>37408.429672964325</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:8" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-    </row>
-    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="72" cm="1">
-        <f t="array" ref="E33">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.05</v>
-      </c>
-      <c r="F33" s="73">
+      <c r="F39" s="85">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="72" cm="1">
-        <f t="array" ref="E34">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.06</v>
-      </c>
-      <c r="F34" s="73">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="86"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="89" cm="1">
+        <f t="array" ref="E40">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F40" s="90">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="72" cm="1">
-        <f t="array" ref="E35">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F35" s="73">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="72" cm="1">
-        <f t="array" ref="E36">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.08</v>
-      </c>
-      <c r="F36" s="73">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="72" cm="1">
-        <f t="array" ref="E37">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.09</v>
-      </c>
-      <c r="F37" s="73">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="72" cm="1">
-        <f t="array" ref="E38">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.15</v>
-      </c>
-      <c r="F38" s="73">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="72" cm="1">
-        <f t="array" ref="E39">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.25</v>
-      </c>
-      <c r="F39" s="73">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="77" cm="1">
-        <f t="array" ref="E40">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.25</v>
-      </c>
-      <c r="F40" s="78">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="79" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="81">
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="93">
         <f>SUM(Tabela2[PERCENTUAL])</f>
         <v>1</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="94">
         <f>SUM(Tabela2[VALORES])</f>
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2"/>

--- a/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
+++ b/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\050 GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EB0E8-FF0C-4455-BA60-C6EFF48B3AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8802D52-4F08-4F4F-8609-8FB9B27A7E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="0" xr2:uid="{24AD6532-C17C-40B9-8631-ABD6C0E9B2AC}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>CONSERVADOR</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>RECOMENDADO:</t>
+  </si>
+  <si>
+    <t>WERER</t>
   </si>
 </sst>
 </file>
@@ -918,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -936,165 +939,164 @@
     <xf numFmtId="8" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1104,168 +1106,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1395,6 +1235,116 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -1418,11 +1368,63 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1739,28 +1741,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,17 +2576,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}" name="Tabela2" displayName="Tabela2" ref="D32:F40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}" name="Tabela2" displayName="Tabela2" ref="D32:F40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="D32:F40" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D33:F40">
     <sortCondition ref="D32:D40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{106591FF-4AA5-41E4-B605-C847260AF707}" name="TIPO_FII" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{290FCF29-061D-4F85-91C4-3AFFA3BFAEE4}" name="PERCENTUAL" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{106591FF-4AA5-41E4-B605-C847260AF707}" name="TIPO_FII" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{290FCF29-061D-4F85-91C4-3AFFA3BFAEE4}" name="PERCENTUAL" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D9DF5F34-1D75-4151-B6DE-7160919BB87E}" name="VALORES" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{D9DF5F34-1D75-4151-B6DE-7160919BB87E}" name="VALORES" dataDxfId="8">
       <calculatedColumnFormula>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2593,16 +2595,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F3DE0F7-F439-45BB-8148-0848C6C64451}" name="Tab_TIPO_INVEST" displayName="Tab_TIPO_INVEST" ref="C3:F15" totalsRowCount="1" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F3DE0F7-F439-45BB-8148-0848C6C64451}" name="Tab_TIPO_INVEST" displayName="Tab_TIPO_INVEST" ref="C3:F15" totalsRowCount="1" totalsRowDxfId="7">
   <autoFilter ref="C3:F14" xr:uid="{4F3DE0F7-F439-45BB-8148-0848C6C64451}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:F14">
     <sortCondition ref="C3:C14"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CB3AD64A-1758-4470-9CF9-BB20350543BC}" name="TIPO_FII" totalsRowLabel="TOTAL" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{02D0F872-09E7-4A9D-8F0C-5249404FA4F3}" name="CONSERVADOR" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{016DDC0E-92B4-411C-B2C5-E8729D702C26}" name="MODERADO" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{FAA6246E-A72B-4089-BE27-3EFE779895C6}" name="AGRESSIVO" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CB3AD64A-1758-4470-9CF9-BB20350543BC}" name="TIPO_FII" totalsRowLabel="TOTAL" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{02D0F872-09E7-4A9D-8F0C-5249404FA4F3}" name="CONSERVADOR" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{016DDC0E-92B4-411C-B2C5-E8729D702C26}" name="MODERADO" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FAA6246E-A72B-4089-BE27-3EFE779895C6}" name="AGRESSIVO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2928,20 +2930,20 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="21.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="17" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="8" hidden="1"/>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.25" customWidth="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
+    <col min="9" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2"/>
@@ -2949,73 +2951,73 @@
     <row r="3" spans="2:15" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:15" s="12" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:15" s="11" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:15" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:15" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="5">
         <v>0.01</v>
       </c>
-      <c r="O10" s="23"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="95">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="94">
+        <v>0.45</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <f>PERCENTUAL_INVESTIR*SALARIO</f>
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="7">
@@ -3024,357 +3026,357 @@
     </row>
     <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="2:15" s="35" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="32" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="2:15" s="34" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="41">
+      <c r="C17" s="39"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="40">
         <f>APORTE</f>
         <v>1500</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="43">
+      <c r="C18" s="19"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="44">
+      <c r="C19" s="20"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="43">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49">
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48">
         <f>FV(TAXA,PERIODO*12,-APORTADO)</f>
         <v>125665.37099773147</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54">
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53">
         <f>PATRIMONIO*TAXA_MENSAL_APROX</f>
         <v>1256.6537099773147</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55" t="s">
+    <row r="23" spans="2:8" s="11" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58">
+      <c r="B24" s="57">
         <v>2</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61">
+      <c r="D24" s="59"/>
+      <c r="E24" s="60">
         <f t="shared" ref="E24:E29" si="0">FV(TAXA,B24*12,-APORTADO)</f>
         <v>40841.440946467825</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="61">
         <f t="shared" ref="F24:F29" si="1">TAXA_MENSAL_APROX*E24</f>
         <v>408.41440946467827</v>
       </c>
-      <c r="H24" s="63"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="64">
+      <c r="B25" s="63">
         <v>5</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67">
+      <c r="D25" s="65"/>
+      <c r="E25" s="66">
         <f t="shared" si="0"/>
         <v>125665.37099773147</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="67">
         <f t="shared" si="1"/>
         <v>1256.6537099773147</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="64">
+      <c r="B26" s="63">
         <v>10</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67">
+      <c r="D26" s="65"/>
+      <c r="E26" s="66">
         <f t="shared" si="0"/>
         <v>364926.3187952583</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="67">
         <f t="shared" si="1"/>
         <v>3649.2631879525829</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64">
+      <c r="B27" s="63">
         <v>20</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67">
+      <c r="D27" s="65"/>
+      <c r="E27" s="66">
         <f t="shared" si="0"/>
         <v>1687797.600145621</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="67">
         <f t="shared" si="1"/>
         <v>16877.976001456209</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="64">
+      <c r="B28" s="63">
         <v>30</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67">
+      <c r="D28" s="65"/>
+      <c r="E28" s="66">
         <f t="shared" si="0"/>
         <v>6483254.4825070715</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="67">
         <f t="shared" si="1"/>
         <v>64832.54482507072</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="69">
+      <c r="B29" s="68">
         <v>35</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72">
+      <c r="D29" s="70"/>
+      <c r="E29" s="71">
         <f t="shared" si="0"/>
         <v>12469476.557654778</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="72">
         <f t="shared" si="1"/>
         <v>124694.76557654778</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:8" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="74" t="s">
+    <row r="31" spans="2:8" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="76"/>
     </row>
     <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="78"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80" t="s">
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="79" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83" t="s">
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="84" cm="1">
+      <c r="E33" s="83" t="e" cm="1">
         <f t="array" ref="E33">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="85">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="84" t="e">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="84" cm="1">
+      <c r="E34" s="83" t="e" cm="1">
         <f t="array" ref="E34">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="85">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="84" t="e">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83" t="s">
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="84" cm="1">
+      <c r="E35" s="83" t="e" cm="1">
         <f t="array" ref="E35">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="85">
+        <v>#N/A</v>
+      </c>
+      <c r="F35" s="84" t="e">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>150</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83" t="s">
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="84" cm="1">
+      <c r="E36" s="83" t="e" cm="1">
         <f t="array" ref="E36">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="85">
+        <v>#N/A</v>
+      </c>
+      <c r="F36" s="84" t="e">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83" t="s">
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="84" cm="1">
+      <c r="E37" s="83" t="e" cm="1">
         <f t="array" ref="E37">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="85">
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="84" t="e">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83" t="s">
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="84" cm="1">
+      <c r="E38" s="83" t="e" cm="1">
         <f t="array" ref="E38">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.2</v>
-      </c>
-      <c r="F38" s="85">
+        <v>#N/A</v>
+      </c>
+      <c r="F38" s="84" t="e">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>300</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="84" cm="1">
+      <c r="E39" s="83" t="e" cm="1">
         <f t="array" ref="E39">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.3</v>
-      </c>
-      <c r="F39" s="85">
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="84" t="e">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>450</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="89" cm="1">
+      <c r="E40" s="88" t="e" cm="1">
         <f t="array" ref="E40">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.4</v>
-      </c>
-      <c r="F40" s="90">
+        <v>#N/A</v>
+      </c>
+      <c r="F40" s="89" t="e">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="91" t="s">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="93">
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92" t="e">
         <f>SUM(Tabela2[PERCENTUAL])</f>
-        <v>1</v>
-      </c>
-      <c r="F41" s="94">
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="93" t="e">
         <f>SUM(Tabela2[VALORES])</f>
-        <v>1500</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2"/>
@@ -3388,12 +3390,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E82012F1-88E2-4781-BF59-7F485405A59A}">
           <x14:formula1>
             <xm:f>TAB_AUX!$D$3:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C12:D12</xm:sqref>
+          <xm:sqref>D12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PERFIL" error="ESCOLHA ENTRE OS PERFIS DISPONÍVEIS" promptTitle="PERFIL DE INVESTIDOR" prompt="ESCOLHA ENTRE OS PERFIS DISPONÍVEIS" xr:uid="{A0F8D2C1-A356-4BA8-83EE-669DE291F96E}">
+          <x14:formula1>
+            <xm:f>TAB_AUX!$D$3:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
+++ b/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\050 GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8802D52-4F08-4F4F-8609-8FB9B27A7E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9449753A-4253-40E3-8678-4FBC82A88F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="0" xr2:uid="{24AD6532-C17C-40B9-8631-ABD6C0E9B2AC}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>CONSERVADOR</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>RECOMENDADO:</t>
-  </si>
-  <si>
-    <t>WERER</t>
   </si>
 </sst>
 </file>
@@ -1741,28 +1738,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2927,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3014,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="27" t="s">
@@ -3250,13 +3247,13 @@
       <c r="D33" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="83" t="e" cm="1">
+      <c r="E33" s="83" cm="1">
         <f t="array" ref="E33">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="F33" s="84">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -3265,13 +3262,13 @@
       <c r="D34" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="83" t="e" cm="1">
+      <c r="E34" s="83" cm="1">
         <f t="array" ref="E34">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="F34" s="84">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -3280,13 +3277,13 @@
       <c r="D35" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="83" t="e" cm="1">
+      <c r="E35" s="83" cm="1">
         <f t="array" ref="E35">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" s="84" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="84">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>#N/A</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -3295,13 +3292,13 @@
       <c r="D36" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="83" t="e" cm="1">
+      <c r="E36" s="83" cm="1">
         <f t="array" ref="E36">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F36" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="F36" s="84">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -3310,13 +3307,13 @@
       <c r="D37" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="83" t="e" cm="1">
+      <c r="E37" s="83" cm="1">
         <f t="array" ref="E37">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" s="84" t="e">
+        <v>0</v>
+      </c>
+      <c r="F37" s="84">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -3325,13 +3322,13 @@
       <c r="D38" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="83" t="e" cm="1">
+      <c r="E38" s="83" cm="1">
         <f t="array" ref="E38">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="84" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="84">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>#N/A</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -3340,13 +3337,13 @@
       <c r="D39" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="83" t="e" cm="1">
+      <c r="E39" s="83" cm="1">
         <f t="array" ref="E39">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F39" s="84" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="84">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>#N/A</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3355,13 +3352,13 @@
       <c r="D40" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="88" t="e" cm="1">
+      <c r="E40" s="88" cm="1">
         <f t="array" ref="E40">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F40" s="89" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="F40" s="89">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>#N/A</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="2:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3370,13 +3367,13 @@
       </c>
       <c r="C41" s="91"/>
       <c r="D41" s="91"/>
-      <c r="E41" s="92" t="e">
+      <c r="E41" s="92">
         <f>SUM(Tabela2[PERCENTUAL])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F41" s="93" t="e">
+        <v>1</v>
+      </c>
+      <c r="F41" s="93">
         <f>SUM(Tabela2[VALORES])</f>
-        <v>#N/A</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2"/>

--- a/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
+++ b/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\050 GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9449753A-4253-40E3-8678-4FBC82A88F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02A04F-E98D-43AF-959D-5560FF951AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="0" xr2:uid="{24AD6532-C17C-40B9-8631-ABD6C0E9B2AC}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,12 +222,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="0"/>
@@ -245,6 +239,19 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -936,13 +943,13 @@
     <xf numFmtId="8" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -981,16 +988,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1063,31 +1070,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -1098,11 +1084,194 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1232,116 +1401,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -1365,63 +1424,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1457,10 +1464,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20254157419511748"/>
-          <c:y val="4.6813648293963256E-2"/>
-          <c:w val="0.61550846684704963"/>
-          <c:h val="0.9377452524316815"/>
+          <c:x val="3.5796876741758582E-3"/>
+          <c:y val="1.5255400767211793E-2"/>
+          <c:w val="0.6324798589365519"/>
+          <c:h val="0.96930345245305871"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -1789,6 +1796,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5952612239259566"/>
+          <c:y val="1.4788861451490162E-2"/>
+          <c:w val="0.39935350186489849"/>
+          <c:h val="0.98521113854850983"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2356,13 +2404,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -2396,8 +2444,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="38100"/>
-          <a:ext cx="6562725" cy="790576"/>
+          <a:off x="104776" y="38100"/>
+          <a:ext cx="6229350" cy="790576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2411,14 +2459,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:colOff>1743075</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2448,11 +2496,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6553200" cy="800100"/>
+    <xdr:ext cx="6229350" cy="800100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Retângulo 5">
@@ -2466,8 +2514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104776" y="9526"/>
-          <a:ext cx="6553200" cy="800100"/>
+          <a:off x="95250" y="9526"/>
+          <a:ext cx="6229350" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2573,17 +2621,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}" name="Tabela2" displayName="Tabela2" ref="D32:F40" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}" name="Tabela2" displayName="Tabela2" ref="D32:F40" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="D32:F40" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D33:F40">
     <sortCondition ref="D32:D40"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{106591FF-4AA5-41E4-B605-C847260AF707}" name="TIPO_FII" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{290FCF29-061D-4F85-91C4-3AFFA3BFAEE4}" name="PERCENTUAL" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{106591FF-4AA5-41E4-B605-C847260AF707}" name="TIPO_FII" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{290FCF29-061D-4F85-91C4-3AFFA3BFAEE4}" name="PERCENTUAL" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D9DF5F34-1D75-4151-B6DE-7160919BB87E}" name="VALORES" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{D9DF5F34-1D75-4151-B6DE-7160919BB87E}" name="VALORES" dataDxfId="2">
       <calculatedColumnFormula>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2592,16 +2640,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F3DE0F7-F439-45BB-8148-0848C6C64451}" name="Tab_TIPO_INVEST" displayName="Tab_TIPO_INVEST" ref="C3:F15" totalsRowCount="1" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F3DE0F7-F439-45BB-8148-0848C6C64451}" name="Tab_TIPO_INVEST" displayName="Tab_TIPO_INVEST" ref="C3:F15" totalsRowCount="1" totalsRowDxfId="12">
   <autoFilter ref="C3:F14" xr:uid="{4F3DE0F7-F439-45BB-8148-0848C6C64451}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:F14">
     <sortCondition ref="C3:C14"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CB3AD64A-1758-4470-9CF9-BB20350543BC}" name="TIPO_FII" totalsRowLabel="TOTAL" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{02D0F872-09E7-4A9D-8F0C-5249404FA4F3}" name="CONSERVADOR" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{016DDC0E-92B4-411C-B2C5-E8729D702C26}" name="MODERADO" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FAA6246E-A72B-4089-BE27-3EFE779895C6}" name="AGRESSIVO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CB3AD64A-1758-4470-9CF9-BB20350543BC}" name="TIPO_FII" totalsRowLabel="TOTAL" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{02D0F872-09E7-4A9D-8F0C-5249404FA4F3}" name="CONSERVADOR" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{016DDC0E-92B4-411C-B2C5-E8729D702C26}" name="MODERADO" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FAA6246E-A72B-4089-BE27-3EFE779895C6}" name="AGRESSIVO" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2926,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F159A4D-3545-4345-84B8-3DC71FEB91FC}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2934,7 +2982,8 @@
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="4" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.25" customWidth="1"/>
@@ -2995,7 +3044,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="94">
+      <c r="D11" s="87">
         <v>0.45</v>
       </c>
       <c r="E11" s="23" t="s">
@@ -3228,150 +3277,150 @@
       <c r="E31" s="75"/>
       <c r="F31" s="76"/>
     </row>
-    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="77"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="79" t="s">
+      <c r="E32" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="94" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82" t="s">
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="83" cm="1">
+      <c r="E33" s="89" cm="1">
         <f t="array" ref="E33">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0</v>
       </c>
-      <c r="F33" s="84">
+      <c r="F33" s="90">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82" t="s">
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="83" cm="1">
+      <c r="E34" s="89" cm="1">
         <f t="array" ref="E34">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0</v>
       </c>
-      <c r="F34" s="84">
+      <c r="F34" s="90">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82" t="s">
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="83" cm="1">
+      <c r="E35" s="89" cm="1">
         <f t="array" ref="E35">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0.1</v>
       </c>
-      <c r="F35" s="84">
+      <c r="F35" s="90">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82" t="s">
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="83" cm="1">
+      <c r="E36" s="89" cm="1">
         <f t="array" ref="E36">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0</v>
       </c>
-      <c r="F36" s="84">
+      <c r="F36" s="90">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82" t="s">
+      <c r="B37" s="79"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="83" cm="1">
+      <c r="E37" s="89" cm="1">
         <f t="array" ref="E37">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0</v>
       </c>
-      <c r="F37" s="84">
+      <c r="F37" s="90">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82" t="s">
+      <c r="B38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="83" cm="1">
+      <c r="E38" s="89" cm="1">
         <f t="array" ref="E38">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0.2</v>
       </c>
-      <c r="F38" s="84">
+      <c r="F38" s="90">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>300</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82" t="s">
+      <c r="B39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="83" cm="1">
+      <c r="E39" s="89" cm="1">
         <f t="array" ref="E39">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0.3</v>
       </c>
-      <c r="F39" s="84">
+      <c r="F39" s="90">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>450</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87" t="s">
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="88" cm="1">
+      <c r="E40" s="92" cm="1">
         <f t="array" ref="E40">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
         <v>0.4</v>
       </c>
-      <c r="F40" s="89">
+      <c r="F40" s="93">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>600</v>
       </c>
     </row>
     <row r="41" spans="2:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="92">
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="85">
         <f>SUM(Tabela2[PERCENTUAL])</f>
         <v>1</v>
       </c>
-      <c r="F41" s="93">
+      <c r="F41" s="86">
         <f>SUM(Tabela2[VALORES])</f>
         <v>1500</v>
       </c>

--- a/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
+++ b/PROJETO_001_DIO_SIMULADOR_INVESTIMENTOS_FII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\050 GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02A04F-E98D-43AF-959D-5560FF951AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28527ED4-A4B5-4CFF-A186-60C10B431B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="0" xr2:uid="{24AD6532-C17C-40B9-8631-ABD6C0E9B2AC}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +255,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -943,173 +950,200 @@
     <xf numFmtId="8" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1153,32 +1187,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1187,7 +1195,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -1224,7 +1232,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -1260,7 +1268,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -1745,28 +1753,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,10 +1810,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.5952612239259566"/>
-          <c:y val="1.4788861451490162E-2"/>
-          <c:w val="0.39935350186489849"/>
-          <c:h val="0.98521113854850983"/>
+          <c:x val="0.5918242362561823"/>
+          <c:y val="0"/>
+          <c:w val="0.40473877607404335"/>
+          <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2404,13 +2412,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -2444,8 +2452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104776" y="38100"/>
-          <a:ext cx="6229350" cy="790576"/>
+          <a:off x="104775" y="38100"/>
+          <a:ext cx="6457950" cy="790576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2462,11 +2470,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2495,12 +2503,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6229350" cy="800100"/>
+    <xdr:ext cx="6457951" cy="771526"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Retângulo 5">
@@ -2514,8 +2522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="9526"/>
-          <a:ext cx="6229350" cy="800100"/>
+          <a:off x="95249" y="38100"/>
+          <a:ext cx="6457951" cy="771526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2621,7 +2629,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}" name="Tabela2" displayName="Tabela2" ref="D32:F40" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}" name="Tabela2" displayName="Tabela2" ref="D32:F40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="D32:F40" xr:uid="{233CDEA3-E656-48CB-9860-9283AD3FADCD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D33:F40">
     <sortCondition ref="D32:D40"/>
@@ -2972,7 +2980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F159A4D-3545-4345-84B8-3DC71FEB91FC}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -2980,16 +2988,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.25" customWidth="1"/>
-    <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" hidden="1"/>
+    <col min="1" max="1" width="1.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="1.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="17" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2"/>
@@ -2997,436 +3005,435 @@
     <row r="3" spans="2:15" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:15" s="11" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:15" s="13" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:15" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:15" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="4">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="5">
         <v>0.01</v>
       </c>
-      <c r="O10" s="22"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="87">
-        <v>0.45</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="26">
         <f>PERCENTUAL_INVESTIR*SALARIO</f>
-        <v>450</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="7">
-        <v>1500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="2:15" s="34" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="31" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="2:15" s="36" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="40">
+      <c r="C17" s="41"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="42">
         <f>APORTE</f>
-        <v>1500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="42">
-        <v>5</v>
+      <c r="C18" s="21"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="86">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="43">
+      <c r="C19" s="22"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="5">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="46"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="48">
+      <c r="F20" s="87">
         <f>FV(TAXA,PERIODO*12,-APORTADO)</f>
-        <v>125665.37099773147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+        <v>4103824.3135658419</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53">
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="88">
         <f>PATRIMONIO*TAXA_MENSAL_APROX</f>
-        <v>1256.6537099773147</v>
+        <v>41038.24313565842</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:8" s="11" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="54" t="s">
+    <row r="23" spans="2:8" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57">
+    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="55">
         <v>2</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60">
+      <c r="D24" s="57"/>
+      <c r="E24" s="89">
         <f t="shared" ref="E24:E29" si="0">FV(TAXA,B24*12,-APORTADO)</f>
-        <v>40841.440946467825</v>
-      </c>
-      <c r="F24" s="61">
+        <v>326731.5275717426</v>
+      </c>
+      <c r="F24" s="90">
         <f t="shared" ref="F24:F29" si="1">TAXA_MENSAL_APROX*E24</f>
-        <v>408.41440946467827</v>
-      </c>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63">
+        <v>3267.3152757174262</v>
+      </c>
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="59">
         <v>5</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66">
+      <c r="D25" s="61"/>
+      <c r="E25" s="91">
         <f t="shared" si="0"/>
-        <v>125665.37099773147</v>
-      </c>
-      <c r="F25" s="67">
+        <v>1005322.9679818518</v>
+      </c>
+      <c r="F25" s="92">
         <f t="shared" si="1"/>
-        <v>1256.6537099773147</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63">
+        <v>10053.229679818518</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="59">
         <v>10</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66">
+      <c r="D26" s="61"/>
+      <c r="E26" s="91">
         <f t="shared" si="0"/>
-        <v>364926.3187952583</v>
-      </c>
-      <c r="F26" s="67">
+        <v>2919410.5503620664</v>
+      </c>
+      <c r="F26" s="92">
         <f t="shared" si="1"/>
-        <v>3649.2631879525829</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="63">
+        <v>29194.105503620664</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="59">
         <v>20</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66">
+      <c r="D27" s="61"/>
+      <c r="E27" s="91">
         <f t="shared" si="0"/>
-        <v>1687797.600145621</v>
-      </c>
-      <c r="F27" s="67">
+        <v>13502380.801164968</v>
+      </c>
+      <c r="F27" s="92">
         <f t="shared" si="1"/>
-        <v>16877.976001456209</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63">
+        <v>135023.80801164967</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="59">
         <v>30</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66">
+      <c r="D28" s="61"/>
+      <c r="E28" s="91">
         <f t="shared" si="0"/>
-        <v>6483254.4825070715</v>
-      </c>
-      <c r="F28" s="67">
+        <v>51866035.860056572</v>
+      </c>
+      <c r="F28" s="92">
         <f t="shared" si="1"/>
-        <v>64832.54482507072</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68">
+        <v>518660.35860056576</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="62">
         <v>35</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71">
+      <c r="D29" s="64"/>
+      <c r="E29" s="93">
         <f t="shared" si="0"/>
-        <v>12469476.557654778</v>
-      </c>
-      <c r="F29" s="72">
+        <v>99755812.46123822</v>
+      </c>
+      <c r="F29" s="94">
         <f t="shared" si="1"/>
-        <v>124694.76557654778</v>
+        <v>997558.12461238226</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:8" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="73" t="s">
+    <row r="31" spans="2:8" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="76"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="94" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="71" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="88" t="s">
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="89" cm="1">
+      <c r="E33" s="75" cm="1">
         <f t="array" ref="E33">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="90">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="89" cm="1">
-        <f t="array" ref="E34">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="90">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="89" cm="1">
-        <f t="array" ref="E35">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="90">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="89" cm="1">
-        <f t="array" ref="E36">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="90">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="89" cm="1">
-        <f t="array" ref="E37">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="90">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="89" cm="1">
-        <f t="array" ref="E38">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.2</v>
-      </c>
-      <c r="F38" s="90">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="89" cm="1">
-        <f t="array" ref="E39">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.3</v>
-      </c>
-      <c r="F39" s="90">
-        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="92" cm="1">
-        <f t="array" ref="E40">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
-        <v>0.4</v>
-      </c>
-      <c r="F40" s="93">
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="76">
         <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="2:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="83" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="75" cm="1">
+        <f t="array" ref="E34">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.06</v>
+      </c>
+      <c r="F34" s="76">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="75" cm="1">
+        <f t="array" ref="E35">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F35" s="76">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>840.00000000000011</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="75" cm="1">
+        <f t="array" ref="E36">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.08</v>
+      </c>
+      <c r="F36" s="76">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="75" cm="1">
+        <f t="array" ref="E37">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.09</v>
+      </c>
+      <c r="F37" s="76">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="75" cm="1">
+        <f t="array" ref="E38">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.15</v>
+      </c>
+      <c r="F38" s="76">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="75" cm="1">
+        <f t="array" ref="E39">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.25</v>
+      </c>
+      <c r="F39" s="76">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="80" cm="1">
+        <f t="array" ref="E40">_xlfn.IFS(PERFIL= "CONSERVADOR",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[CONSERVADOR]),PERFIL= "MODERADO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[MODERADO]),PERFIL= "AGRESSIVO",_xlfn.XLOOKUP(Tabela2[[#This Row],[TIPO_FII]],Tab_TIPO_INVEST[TIPO_FII],Tab_TIPO_INVEST[AGRESSIVO]))</f>
+        <v>0.25</v>
+      </c>
+      <c r="F40" s="81">
+        <f>APORTADO*Tabela2[[#This Row],[PERCENTUAL]]</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="85">
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84">
         <f>SUM(Tabela2[PERCENTUAL])</f>
         <v>1</v>
       </c>
-      <c r="F41" s="86">
+      <c r="F41" s="85">
         <f>SUM(Tabela2[VALORES])</f>
-        <v>1500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
